--- a/employeeUpload/EmployeeUpload.xlsx
+++ b/employeeUpload/EmployeeUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB227D37-D79A-455D-B066-7088044B01E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86542019-F290-40FC-850B-03A52DC693C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,7 +860,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>(If employee type is selected in N column)</t>
+      <t>(If employee type is selected in L column)</t>
     </r>
   </si>
 </sst>
@@ -868,7 +868,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="67">
+  <numFmts count="68">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
@@ -936,6 +936,7 @@
     <numFmt numFmtId="227" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="228" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="229" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="231" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="77">
     <font>
@@ -4354,7 +4355,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="76" fillId="49" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -4382,6 +4383,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="231" fontId="57" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="231" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6616,9 +6623,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6631,8 +6638,8 @@
     <col min="6" max="6" width="24.08984375" style="6" customWidth="1"/>
     <col min="7" max="7" width="24.54296875" style="6" customWidth="1"/>
     <col min="8" max="8" width="19.81640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.26953125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="26.7265625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.26953125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="26.7265625" style="12" customWidth="1"/>
     <col min="11" max="11" width="18.81640625" style="6" customWidth="1"/>
     <col min="12" max="12" width="35" style="6" customWidth="1"/>
     <col min="13" max="13" width="25.08984375" style="10" customWidth="1"/>
@@ -6665,10 +6672,10 @@
       <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -6690,12 +6697,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>SELECTIONS!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1 A2:A65536</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>SELECTIONS!$B$2:$B$3</xm:f>
@@ -6713,6 +6714,12 @@
             <xm:f>SELECTIONS!$D$2:$D$19</xm:f>
           </x14:formula1>
           <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3ABA8F1A-F207-4527-B855-05D42CD8A568}">
+          <x14:formula1>
+            <xm:f>SELECTIONS!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/employeeUpload/EmployeeUpload.xlsx
+++ b/employeeUpload/EmployeeUpload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ELendingTool\employeeUpload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86542019-F290-40FC-850B-03A52DC693C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1ADD0CC-DF50-452B-BA86-D88E0D04F29C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,12 +40,6 @@
     <t>FIRST NAME *</t>
   </si>
   <si>
-    <t>MIDDLE NAME</t>
-  </si>
-  <si>
-    <t>EXTENSION NAME</t>
-  </si>
-  <si>
     <t>SALUTATION*</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
   </si>
   <si>
     <t>CIVIL STATUS</t>
-  </si>
-  <si>
-    <t>DATE OF BIRTH (YYYY-DD-MM) *</t>
   </si>
   <si>
     <t>Male</t>
@@ -99,9 +90,6 @@
   </si>
   <si>
     <t>BRANCH *</t>
-  </si>
-  <si>
-    <t>DATE HIRED (YYYY-DD-MM) *</t>
   </si>
   <si>
     <t>Mr.</t>
@@ -862,6 +850,20 @@
       </rPr>
       <t>(If employee type is selected in L column)</t>
     </r>
+  </si>
+  <si>
+    <t>DATE OF BIRTH (YYYY-MM-DD) *</t>
+  </si>
+  <si>
+    <t>DATE HIRED (YYYY-MM-DD) *</t>
+  </si>
+  <si>
+    <t>MIDDLE NAME
+(N/A if none)</t>
+  </si>
+  <si>
+    <t>EXTENSION NAME
+(- if none)</t>
   </si>
 </sst>
 </file>
@@ -936,7 +938,7 @@
     <numFmt numFmtId="227" formatCode="#,##0&quot; &quot;;&quot;-&quot;#,##0&quot; &quot;;&quot; - &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="228" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;;&quot; -&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
     <numFmt numFmtId="229" formatCode="&quot; $&quot;#,##0.00&quot; &quot;;&quot;-$&quot;#,##0.00&quot; &quot;;&quot; $-&quot;#&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="231" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="230" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="77">
     <font>
@@ -4385,10 +4387,10 @@
     <xf numFmtId="49" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="231" fontId="57" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="230" fontId="57" fillId="50" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="231" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="230" fontId="76" fillId="49" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6649,7 +6651,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="51.5" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
@@ -6658,37 +6660,37 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>271</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="M1" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -6749,1288 +6751,1288 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="D5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="D7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="D8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="D9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="D10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="D12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="D13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="D14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="D15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="D16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="103" spans="4:4">
       <c r="D103" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="4:4">
       <c r="D104" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="4:4">
       <c r="D105" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="106" spans="4:4">
       <c r="D106" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="4:4">
       <c r="D107" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="4:4">
       <c r="D108" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="4:4">
       <c r="D109" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="4:4">
       <c r="D110" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="4:4">
       <c r="D111" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="4:4">
       <c r="D112" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="4:4">
       <c r="D113" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="4:4">
       <c r="D114" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="4:4">
       <c r="D115" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="4:4">
       <c r="D116" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="4:4">
       <c r="D117" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="4:4">
       <c r="D118" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="4:4">
       <c r="D119" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="4:4">
       <c r="D120" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="4:4">
       <c r="D121" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="4:4">
       <c r="D122" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="4:4">
       <c r="D123" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="4:4">
       <c r="D124" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="4:4">
       <c r="D125" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="126" spans="4:4">
       <c r="D126" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="127" spans="4:4">
       <c r="D127" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="128" spans="4:4">
       <c r="D128" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="4:4">
       <c r="D129" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="4:4">
       <c r="D130" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="131" spans="4:4">
       <c r="D131" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="132" spans="4:4">
       <c r="D132" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="4:4">
       <c r="D133" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="134" spans="4:4">
       <c r="D134" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="135" spans="4:4">
       <c r="D135" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="4:4">
       <c r="D136" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="4:4">
       <c r="D137" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="4:4">
       <c r="D138" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="4:4">
       <c r="D139" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="4:4">
       <c r="D140" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="4:4">
       <c r="D141" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="4:4">
       <c r="D142" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="4:4">
       <c r="D143" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="4:4">
       <c r="D144" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="4:4">
       <c r="D145" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="4:4">
       <c r="D146" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="4:4">
       <c r="D147" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="148" spans="4:4">
       <c r="D148" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="4:4">
       <c r="D149" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="4:4">
       <c r="D150" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="4:4">
       <c r="D151" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="4:4">
       <c r="D152" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="4:4">
       <c r="D153" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="4:4">
       <c r="D154" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="4:4">
       <c r="D155" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="4:4">
       <c r="D156" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="4:4">
       <c r="D157" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="4:4">
       <c r="D158" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="4:4">
       <c r="D159" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="4:4">
       <c r="D160" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="4:4">
       <c r="D161" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="4:4">
       <c r="D162" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="4:4">
       <c r="D163" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="4:4">
       <c r="D164" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="4:4">
       <c r="D165" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="166" spans="4:4">
       <c r="D166" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="167" spans="4:4">
       <c r="D167" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="168" spans="4:4">
       <c r="D168" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="4:4">
       <c r="D169" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="4:4">
       <c r="D170" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="4:4">
       <c r="D171" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="172" spans="4:4">
       <c r="D172" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="4:4">
       <c r="D173" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="174" spans="4:4">
       <c r="D174" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="175" spans="4:4">
       <c r="D175" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="176" spans="4:4">
       <c r="D176" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177" spans="4:4">
       <c r="D177" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="178" spans="4:4">
       <c r="D178" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="179" spans="4:4">
       <c r="D179" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="180" spans="4:4">
       <c r="D180" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="181" spans="4:4">
       <c r="D181" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="182" spans="4:4">
       <c r="D182" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="183" spans="4:4">
       <c r="D183" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="184" spans="4:4">
       <c r="D184" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="185" spans="4:4">
       <c r="D185" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="186" spans="4:4">
       <c r="D186" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="4:4">
       <c r="D187" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="188" spans="4:4">
       <c r="D188" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="189" spans="4:4">
       <c r="D189" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="4:4">
       <c r="D190" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="191" spans="4:4">
       <c r="D191" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="192" spans="4:4">
       <c r="D192" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="193" spans="4:4">
       <c r="D193" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="194" spans="4:4">
       <c r="D194" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195" spans="4:4">
       <c r="D195" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="196" spans="4:4">
       <c r="D196" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" spans="4:4">
       <c r="D197" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="198" spans="4:4">
       <c r="D198" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="199" spans="4:4">
       <c r="D199" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="200" spans="4:4">
       <c r="D200" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="4:4">
       <c r="D201" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="4:4">
       <c r="D202" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="4:4">
       <c r="D203" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="4:4">
       <c r="D204" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="4:4">
       <c r="D205" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="4:4">
       <c r="D206" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="4:4">
       <c r="D207" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="4:4">
       <c r="D208" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="4:4">
       <c r="D209" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="4:4">
       <c r="D210" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="4:4">
       <c r="D211" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="4:4">
       <c r="D212" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="4:4">
       <c r="D213" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="4:4">
       <c r="D214" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="4:4">
       <c r="D215" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="4:4">
       <c r="D216" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="4:4">
       <c r="D217" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="4:4">
       <c r="D218" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="4:4">
       <c r="D219" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="220" spans="4:4">
       <c r="D220" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="221" spans="4:4">
       <c r="D221" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="222" spans="4:4">
       <c r="D222" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="223" spans="4:4">
       <c r="D223" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="224" spans="4:4">
       <c r="D224" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="225" spans="4:4">
       <c r="D225" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="226" spans="4:4">
       <c r="D226" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="227" spans="4:4">
       <c r="D227" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="228" spans="4:4">
       <c r="D228" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="229" spans="4:4">
       <c r="D229" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="230" spans="4:4">
       <c r="D230" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="231" spans="4:4">
       <c r="D231" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="232" spans="4:4">
       <c r="D232" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="233" spans="4:4">
       <c r="D233" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="234" spans="4:4">
       <c r="D234" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="235" spans="4:4">
       <c r="D235" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="236" spans="4:4">
       <c r="D236" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="237" spans="4:4">
       <c r="D237" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="238" spans="4:4">
       <c r="D238" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="239" spans="4:4">
       <c r="D239" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="4:4">
       <c r="D240" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="241" spans="4:4">
       <c r="D241" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="242" spans="4:4">
       <c r="D242" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="243" spans="4:4">
       <c r="D243" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="244" spans="4:4">
       <c r="D244" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="245" spans="4:4">
       <c r="D245" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="246" spans="4:4">
       <c r="D246" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="247" spans="4:4">
       <c r="D247" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="248" spans="4:4">
       <c r="D248" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="4:4">
       <c r="D249" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" spans="4:4">
       <c r="D250" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
